--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H2">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I2">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J2">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65732958697911</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N2">
-        <v>1.65732958697911</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O2">
-        <v>0.3967744199406166</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P2">
-        <v>0.3967744199406166</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q2">
-        <v>8.785226163245509</v>
+        <v>32.42758709371489</v>
       </c>
       <c r="R2">
-        <v>8.785226163245509</v>
+        <v>291.848283843434</v>
       </c>
       <c r="S2">
-        <v>0.001118846387140641</v>
+        <v>0.002802416307378798</v>
       </c>
       <c r="T2">
-        <v>0.001118846387140641</v>
+        <v>0.003080541404723088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H3">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I3">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J3">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01028305160397</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N3">
-        <v>1.01028305160397</v>
+        <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.2418676857791798</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P3">
-        <v>0.2418676857791798</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q3">
-        <v>5.355341005775807</v>
+        <v>11.38043517068144</v>
       </c>
       <c r="R3">
-        <v>5.355341005775807</v>
+        <v>102.423916536133</v>
       </c>
       <c r="S3">
-        <v>0.000682031836731321</v>
+        <v>0.000983505711208662</v>
       </c>
       <c r="T3">
-        <v>0.000682031836731321</v>
+        <v>0.001081113486665986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H4">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I4">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J4">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.155290287716967</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N4">
-        <v>0.155290287716967</v>
+        <v>0.06775</v>
       </c>
       <c r="O4">
-        <v>0.03717740533650878</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P4">
-        <v>0.03717740533650878</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q4">
-        <v>0.823167768962431</v>
+        <v>0.2406633491388889</v>
       </c>
       <c r="R4">
-        <v>0.823167768962431</v>
+        <v>2.16597014225</v>
       </c>
       <c r="S4">
-        <v>0.0001048348974972769</v>
+        <v>2.079830646252243E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001048348974972769</v>
+        <v>2.286242912490299E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H5">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I5">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J5">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35410421853342</v>
+        <v>0.160044</v>
       </c>
       <c r="N5">
-        <v>1.35410421853342</v>
+        <v>0.480132</v>
       </c>
       <c r="O5">
-        <v>0.3241804889436948</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P5">
-        <v>0.3241804889436948</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q5">
-        <v>7.177879343905577</v>
+        <v>1.705537640572</v>
       </c>
       <c r="R5">
-        <v>7.177879343905577</v>
+        <v>15.349838765148</v>
       </c>
       <c r="S5">
-        <v>0.0009141420177500969</v>
+        <v>0.0001473938373204992</v>
       </c>
       <c r="T5">
-        <v>0.0009141420177500969</v>
+        <v>0.0001620219014110395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1817.26560160239</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H6">
-        <v>1817.26560160239</v>
+        <v>31.970039</v>
       </c>
       <c r="I6">
-        <v>0.9667209753075875</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J6">
-        <v>0.9667209753075875</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65732958697911</v>
+        <v>1.3872175</v>
       </c>
       <c r="N6">
-        <v>1.65732958697911</v>
+        <v>2.774435</v>
       </c>
       <c r="O6">
-        <v>0.3967744199406166</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P6">
-        <v>0.3967744199406166</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q6">
-        <v>3011.808048935033</v>
+        <v>14.78313252549417</v>
       </c>
       <c r="R6">
-        <v>3011.808048935033</v>
+        <v>88.69879515296499</v>
       </c>
       <c r="S6">
-        <v>0.3835701542220952</v>
+        <v>0.001277569359195906</v>
       </c>
       <c r="T6">
-        <v>0.3835701542220952</v>
+        <v>0.0009362409379948374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H7">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J7">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01028305160397</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N7">
-        <v>1.01028305160397</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O7">
-        <v>0.2418676857791798</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P7">
-        <v>0.2418676857791798</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q7">
-        <v>1835.952637561787</v>
+        <v>5979.189633261391</v>
       </c>
       <c r="R7">
-        <v>1835.952637561787</v>
+        <v>53812.70669935252</v>
       </c>
       <c r="S7">
-        <v>0.2338185650918378</v>
+        <v>0.5167260359130963</v>
       </c>
       <c r="T7">
-        <v>0.2338185650918378</v>
+        <v>0.5680083806026619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H8">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J8">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.155290287716967</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N8">
-        <v>0.155290287716967</v>
+        <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.03717740533650878</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P8">
-        <v>0.03717740533650878</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q8">
-        <v>282.2036981309823</v>
+        <v>2098.391711905399</v>
       </c>
       <c r="R8">
-        <v>282.2036981309823</v>
+        <v>18885.52540714859</v>
       </c>
       <c r="S8">
-        <v>0.03594017754631527</v>
+        <v>0.1813445797159535</v>
       </c>
       <c r="T8">
-        <v>0.03594017754631527</v>
+        <v>0.1993420766451424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H9">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J9">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35410421853342</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N9">
-        <v>1.35410421853342</v>
+        <v>0.06775</v>
       </c>
       <c r="O9">
-        <v>0.3241804889436948</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P9">
-        <v>0.3241804889436948</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q9">
-        <v>2460.76701732547</v>
+        <v>44.37492675969445</v>
       </c>
       <c r="R9">
-        <v>2460.76701732547</v>
+        <v>399.37434083725</v>
       </c>
       <c r="S9">
-        <v>0.3133920784473392</v>
+        <v>0.003834914328676968</v>
       </c>
       <c r="T9">
-        <v>0.3133920784473392</v>
+        <v>0.004215509430897133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.428296604429237</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H10">
-        <v>0.428296604429237</v>
+        <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.0002278386333784526</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J10">
-        <v>0.0002278386333784526</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.65732958697911</v>
+        <v>0.160044</v>
       </c>
       <c r="N10">
-        <v>1.65732958697911</v>
+        <v>0.480132</v>
       </c>
       <c r="O10">
-        <v>0.3967744199406166</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P10">
-        <v>0.3967744199406166</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q10">
-        <v>0.7098286345232626</v>
+        <v>314.477082435212</v>
       </c>
       <c r="R10">
-        <v>0.7098286345232626</v>
+        <v>2830.293741916908</v>
       </c>
       <c r="S10">
-        <v>9.040054159879834E-05</v>
+        <v>0.02717734444953992</v>
       </c>
       <c r="T10">
-        <v>9.040054159879834E-05</v>
+        <v>0.02987455312288564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.428296604429237</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H11">
-        <v>0.428296604429237</v>
+        <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.0002278386333784526</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J11">
-        <v>0.0002278386333784526</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.01028305160397</v>
+        <v>1.3872175</v>
       </c>
       <c r="N11">
-        <v>1.01028305160397</v>
+        <v>2.774435</v>
       </c>
       <c r="O11">
-        <v>0.2418676857791798</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P11">
-        <v>0.2418676857791798</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q11">
-        <v>0.432700800514388</v>
+        <v>2725.801105340211</v>
       </c>
       <c r="R11">
-        <v>0.432700800514388</v>
+        <v>16354.80663204127</v>
       </c>
       <c r="S11">
-        <v>5.510680298633733E-05</v>
+        <v>0.2355657683132741</v>
       </c>
       <c r="T11">
-        <v>5.510680298633733E-05</v>
+        <v>0.1726296222569902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H12">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I12">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J12">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.155290287716967</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N12">
-        <v>0.155290287716967</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O12">
-        <v>0.03717740533650878</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P12">
-        <v>0.03717740533650878</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q12">
-        <v>0.06651030293001622</v>
+        <v>3.550338714296</v>
       </c>
       <c r="R12">
-        <v>0.06651030293001622</v>
+        <v>31.953048428664</v>
       </c>
       <c r="S12">
-        <v>8.47044922442695E-06</v>
+        <v>0.0003068229245952686</v>
       </c>
       <c r="T12">
-        <v>8.47044922442695E-06</v>
+        <v>0.000337273488112841</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H13">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I13">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J13">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.35410421853342</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N13">
-        <v>1.35410421853342</v>
+        <v>3.203747</v>
       </c>
       <c r="O13">
-        <v>0.3241804889436948</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P13">
-        <v>0.3241804889436948</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q13">
-        <v>0.5799582388411693</v>
+        <v>1.245988468252</v>
       </c>
       <c r="R13">
-        <v>0.5799582388411693</v>
+        <v>11.213896214268</v>
       </c>
       <c r="S13">
-        <v>7.386083956888998E-05</v>
+        <v>0.0001076792544614616</v>
       </c>
       <c r="T13">
-        <v>7.386083956888998E-05</v>
+        <v>0.0001183658548249409</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.289213345465911</v>
+        <v>1.166748</v>
       </c>
       <c r="H14">
-        <v>0.289213345465911</v>
+        <v>3.500244</v>
       </c>
       <c r="I14">
-        <v>0.0001538512626631165</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J14">
-        <v>0.0001538512626631165</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.65732958697911</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N14">
-        <v>1.65732958697911</v>
+        <v>0.06775</v>
       </c>
       <c r="O14">
-        <v>0.3967744199406166</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P14">
-        <v>0.3967744199406166</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q14">
-        <v>0.4793218343898649</v>
+        <v>0.026349059</v>
       </c>
       <c r="R14">
-        <v>0.4793218343898649</v>
+        <v>0.237141531</v>
       </c>
       <c r="S14">
-        <v>6.104424550028948E-05</v>
+        <v>2.277105367485019E-06</v>
       </c>
       <c r="T14">
-        <v>6.104424550028948E-05</v>
+        <v>2.503096113516376E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.289213345465911</v>
+        <v>1.166748</v>
       </c>
       <c r="H15">
-        <v>0.289213345465911</v>
+        <v>3.500244</v>
       </c>
       <c r="I15">
-        <v>0.0001538512626631165</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J15">
-        <v>0.0001538512626631165</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.01028305160397</v>
+        <v>0.160044</v>
       </c>
       <c r="N15">
-        <v>1.01028305160397</v>
+        <v>0.480132</v>
       </c>
       <c r="O15">
-        <v>0.2418676857791798</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P15">
-        <v>0.2418676857791798</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q15">
-        <v>0.2921873412218938</v>
+        <v>0.186731016912</v>
       </c>
       <c r="R15">
-        <v>0.2921873412218938</v>
+        <v>1.680579152208</v>
       </c>
       <c r="S15">
-        <v>3.721164885453272E-05</v>
+        <v>1.613743401182755E-05</v>
       </c>
       <c r="T15">
-        <v>3.721164885453272E-05</v>
+        <v>1.773898956715638E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.289213345465911</v>
+        <v>1.166748</v>
       </c>
       <c r="H16">
-        <v>0.289213345465911</v>
+        <v>3.500244</v>
       </c>
       <c r="I16">
-        <v>0.0001538512626631165</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J16">
-        <v>0.0001538512626631165</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.155290287716967</v>
+        <v>1.3872175</v>
       </c>
       <c r="N16">
-        <v>0.155290287716967</v>
+        <v>2.774435</v>
       </c>
       <c r="O16">
-        <v>0.03717740533650878</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P16">
-        <v>0.03717740533650878</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q16">
-        <v>0.04491202362898789</v>
+        <v>1.61853324369</v>
       </c>
       <c r="R16">
-        <v>0.04491202362898789</v>
+        <v>9.71119946214</v>
       </c>
       <c r="S16">
-        <v>5.71979075356036E-06</v>
+        <v>0.0001398748523299992</v>
       </c>
       <c r="T16">
-        <v>5.71979075356036E-06</v>
+        <v>0.0001025044644384326</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H17">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I17">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J17">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.35410421853342</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N17">
-        <v>1.35410421853342</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O17">
-        <v>0.3241804889436948</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P17">
-        <v>0.3241804889436948</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q17">
-        <v>0.3916250111515534</v>
+        <v>3.284979538552667</v>
       </c>
       <c r="R17">
-        <v>0.3916250111515534</v>
+        <v>29.564815846974</v>
       </c>
       <c r="S17">
-        <v>4.987557755473392E-05</v>
+        <v>0.0002838903863442234</v>
       </c>
       <c r="T17">
-        <v>4.987557755473392E-05</v>
+        <v>0.0003120650159055775</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.5403777927003</v>
+        <v>1.079543</v>
       </c>
       <c r="H18">
-        <v>56.5403777927003</v>
+        <v>3.238629</v>
       </c>
       <c r="I18">
-        <v>0.03007747965725144</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J18">
-        <v>0.03007747965725144</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.65732958697911</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N18">
-        <v>1.65732958697911</v>
+        <v>3.203747</v>
       </c>
       <c r="O18">
-        <v>0.3967744199406166</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P18">
-        <v>0.3967744199406166</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q18">
-        <v>93.70604097481883</v>
+        <v>1.152860882540333</v>
       </c>
       <c r="R18">
-        <v>93.70604097481883</v>
+        <v>10.375747942863</v>
       </c>
       <c r="S18">
-        <v>0.01193397454428164</v>
+        <v>9.963109891689522E-05</v>
       </c>
       <c r="T18">
-        <v>0.01193397454428164</v>
+        <v>0.000109518962119739</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.5403777927003</v>
+        <v>1.079543</v>
       </c>
       <c r="H19">
-        <v>56.5403777927003</v>
+        <v>3.238629</v>
       </c>
       <c r="I19">
-        <v>0.03007747965725144</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J19">
-        <v>0.03007747965725144</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.01028305160397</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N19">
-        <v>1.01028305160397</v>
+        <v>0.06775</v>
       </c>
       <c r="O19">
-        <v>0.2418676857791798</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P19">
-        <v>0.2418676857791798</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q19">
-        <v>57.1217854152506</v>
+        <v>0.02437967941666666</v>
       </c>
       <c r="R19">
-        <v>57.1217854152506</v>
+        <v>0.21941711475</v>
       </c>
       <c r="S19">
-        <v>0.007274770398769766</v>
+        <v>2.106910112321495E-06</v>
       </c>
       <c r="T19">
-        <v>0.007274770398769766</v>
+        <v>2.316009873317811E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.5403777927003</v>
+        <v>1.079543</v>
       </c>
       <c r="H20">
-        <v>56.5403777927003</v>
+        <v>3.238629</v>
       </c>
       <c r="I20">
-        <v>0.03007747965725144</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J20">
-        <v>0.03007747965725144</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.155290287716967</v>
+        <v>0.160044</v>
       </c>
       <c r="N20">
-        <v>0.155290287716967</v>
+        <v>0.480132</v>
       </c>
       <c r="O20">
-        <v>0.03717740533650878</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P20">
-        <v>0.03717740533650878</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q20">
-        <v>8.780171535054441</v>
+        <v>0.172774379892</v>
       </c>
       <c r="R20">
-        <v>8.780171535054441</v>
+        <v>1.554969419028</v>
       </c>
       <c r="S20">
-        <v>0.001118202652718234</v>
+        <v>1.493129101179548E-05</v>
       </c>
       <c r="T20">
-        <v>0.001118202652718234</v>
+        <v>1.641314321027051E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.5403777927003</v>
+        <v>1.079543</v>
       </c>
       <c r="H21">
-        <v>56.5403777927003</v>
+        <v>3.238629</v>
       </c>
       <c r="I21">
-        <v>0.03007747965725144</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J21">
-        <v>0.03007747965725144</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.35410421853342</v>
+        <v>1.3872175</v>
       </c>
       <c r="N21">
-        <v>1.35410421853342</v>
+        <v>2.774435</v>
       </c>
       <c r="O21">
-        <v>0.3241804889436948</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P21">
-        <v>0.3241804889436948</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q21">
-        <v>76.56156408656877</v>
+        <v>1.4975609416025</v>
       </c>
       <c r="R21">
-        <v>76.56156408656877</v>
+        <v>8.985365649615</v>
       </c>
       <c r="S21">
-        <v>0.009750532061481808</v>
+        <v>0.000129420335589934</v>
       </c>
       <c r="T21">
-        <v>0.009750532061481808</v>
+        <v>9.484308269931365E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H22">
+        <v>118.211979</v>
+      </c>
+      <c r="I22">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J22">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.042935333333334</v>
+      </c>
+      <c r="N22">
+        <v>9.128806000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.5356624298519768</v>
+      </c>
+      <c r="P22">
+        <v>0.5831288282815508</v>
+      </c>
+      <c r="Q22">
+        <v>179.8557038611791</v>
+      </c>
+      <c r="R22">
+        <v>1079.134223167074</v>
+      </c>
+      <c r="S22">
+        <v>0.01554326432056214</v>
+      </c>
+      <c r="T22">
+        <v>0.01139056777014743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H23">
+        <v>118.211979</v>
+      </c>
+      <c r="I23">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J23">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.203747</v>
+      </c>
+      <c r="O23">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P23">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q23">
+        <v>63.12021218088551</v>
+      </c>
+      <c r="R23">
+        <v>378.721273085313</v>
+      </c>
+      <c r="S23">
+        <v>0.005454895901743118</v>
+      </c>
+      <c r="T23">
+        <v>0.003997510443524214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H24">
+        <v>118.211979</v>
+      </c>
+      <c r="I24">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J24">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.06775</v>
+      </c>
+      <c r="O24">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P24">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q24">
+        <v>1.334810262875</v>
+      </c>
+      <c r="R24">
+        <v>8.008861577250002</v>
+      </c>
+      <c r="S24">
+        <v>0.0001153553003227459</v>
+      </c>
+      <c r="T24">
+        <v>8.453580527699767E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H25">
+        <v>118.211979</v>
+      </c>
+      <c r="I25">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J25">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.160044</v>
+      </c>
+      <c r="N25">
+        <v>0.480132</v>
+      </c>
+      <c r="O25">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P25">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q25">
+        <v>9.459558983538001</v>
+      </c>
+      <c r="R25">
+        <v>56.75735390122801</v>
+      </c>
+      <c r="S25">
+        <v>0.0008175021557868729</v>
+      </c>
+      <c r="T25">
+        <v>0.0005990899669262796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H26">
+        <v>118.211979</v>
+      </c>
+      <c r="I26">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J26">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.3872175</v>
+      </c>
+      <c r="N26">
+        <v>2.774435</v>
+      </c>
+      <c r="O26">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P26">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q26">
+        <v>81.99286298921626</v>
+      </c>
+      <c r="R26">
+        <v>327.9714519568651</v>
+      </c>
+      <c r="S26">
+        <v>0.007085884486736626</v>
+      </c>
+      <c r="T26">
+        <v>0.003461831688762909</v>
       </c>
     </row>
   </sheetData>
